--- a/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_uniferr.xlsx
+++ b/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_uniferr.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,25 @@
         <v>0.05861402054421974</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001853538077396365</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.86</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3469870314579495</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01097269337947616</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2816318825931494</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01259670357623392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0003983427431088765</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +546,25 @@
         <v>0.05862477829858802</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001853878267459489</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.859</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.3480215510568275</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01100540776164155</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2816647623725978</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01261984904122692</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0003990746669776923</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +580,25 @@
         <v>0.05721550777563737</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001809313220540883</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.851</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3560884721526379</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01126050620531777</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2786598371997351</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01260953335422072</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0003987484563120023</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +614,25 @@
         <v>0.05731371676824392</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001812418861574356</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.862</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3448999855030441</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01090669519148674</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.280604017591724</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01281049077120059</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004051032878156083</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +648,25 @@
         <v>0.048393956043797</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001530351260844698</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.869</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.3374003556607491</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.01066953607238853</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2473613294338593</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.009905380743053133</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003132356423921898</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +682,25 @@
         <v>4.959783844907887</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1568421365201624</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.953</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7474017499501647</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>2.364161146616203</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.07476133978982479</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +716,25 @@
         <v>7.162855959470022</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2265093938363599</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.95</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006892024376045112</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.011411262950842</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>5.472857229927684</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1730669415549132</v>
       </c>
     </row>
     <row r="9">
@@ -672,16 +750,25 @@
         <v>3.346084573471924</v>
       </c>
       <c r="D9" t="n">
+        <v>0.105812484957243</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.962</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7999276673429051</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>3.70140309844423</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1170486432948821</v>
       </c>
     </row>
     <row r="10">
@@ -697,16 +784,25 @@
         <v>2.357244307950535</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0745426101459105</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.954</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7622059214267531</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>2.248866954472146</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.07111541730818166</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +818,25 @@
         <v>7.474568035839403</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2363665951914359</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2482820976228451</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007851369307324678</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.281340592028771</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>8.497835126684906</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2687251418090981</v>
       </c>
     </row>
     <row r="12">
@@ -747,16 +852,25 @@
         <v>0.05610327004419007</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001774141175231361</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.945</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3596065882797318</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.0125820222442926</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003978784786286811</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +886,25 @@
         <v>0.05685422037763087</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001797888309864719</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3577209811436103</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01268299285966694</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004010714498419985</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +920,25 @@
         <v>0.05660162726849308</v>
       </c>
       <c r="D14" t="n">
+        <v>0.00178990061440333</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3535117519287421</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01232647487975383</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003897973614087226</v>
       </c>
     </row>
     <row r="15">
@@ -822,16 +954,25 @@
         <v>0.05731439420275714</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00178990061440333</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3518481172920563</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01258981322275812</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003981248510002048</v>
       </c>
     </row>
     <row r="16">
@@ -847,16 +988,25 @@
         <v>0.0482266638929026</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001525061018529749</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3003242815174531</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.00825261918397459</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002609707328335985</v>
       </c>
     </row>
     <row r="17">
@@ -872,16 +1022,25 @@
         <v>0.05742322331366657</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001815881762596679</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.894</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3008436846898778</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.009798755350615043</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003098638514270533</v>
       </c>
     </row>
     <row r="18">
@@ -897,16 +1056,25 @@
         <v>0.05749334242252157</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001818099123511509</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.88</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3249615361854384</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.0102761860629321</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2954989844509253</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.009385245930625818</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0002967875354160421</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1090,25 @@
         <v>0.05870109503118844</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001856291614445482</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.923</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.3314646595239278</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01532020383907514</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0004844673834953316</v>
       </c>
     </row>
     <row r="20">
@@ -947,16 +1124,25 @@
         <v>0.05837219709658041</v>
       </c>
       <c r="D20" t="n">
+        <v>0.001845890948534618</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.901</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.3256466309201873</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.01514609615977288</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0004789616152481187</v>
       </c>
     </row>
     <row r="21">
@@ -972,16 +1158,25 @@
         <v>0.06666585677792464</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002108159495848158</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2482820976228451</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007851369307324678</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4202136699259967</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01820276929733665</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0005756221070216654</v>
       </c>
     </row>
     <row r="22">
@@ -997,16 +1192,25 @@
         <v>0.06638758571533077</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002099359792201039</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007739767438366609</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4126894223625609</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01761462477998698</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0005570233443400118</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,22 +1250,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1297,25 @@
         <v>0.03756234954241002</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001187825788213992</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.7332332703623082</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.07101858676994781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002245804903993356</v>
       </c>
     </row>
     <row r="3">
@@ -1103,16 +1331,25 @@
         <v>0.03756927554372631</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00118804480760636</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.7634396501419092</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.07146895102651812</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.002260046672268262</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1365,25 @@
         <v>0.03739771715496524</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001182619655004423</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.7153381080452527</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.06874287427965779</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002173840556303253</v>
       </c>
     </row>
     <row r="5">
@@ -1153,16 +1399,25 @@
         <v>0.03753151309558786</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001186850654144945</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.7465645000151854</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.06931025983093198</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00219178286283822</v>
       </c>
     </row>
     <row r="6">
@@ -1178,16 +1433,25 @@
         <v>0.03047807285442807</v>
       </c>
       <c r="D6" t="n">
+        <v>0.000963801289125422</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5673854754628405</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.05370797737569892</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001698395370280014</v>
       </c>
     </row>
     <row r="7">
@@ -1203,16 +1467,25 @@
         <v>0.03429676811770191</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001084559036345839</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.946</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2175931248149346</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.007793693542147948</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0002464582297853302</v>
       </c>
     </row>
     <row r="8">
@@ -1228,16 +1501,25 @@
         <v>0.03484449758199503</v>
       </c>
       <c r="D8" t="n">
+        <v>0.00110187976283334</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2164653196496371</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.007832906951839899</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002476982666798091</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1535,25 @@
         <v>0.03474225433900217</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001098646547601145</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2139549531740191</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.007551792342326794</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002388086421837066</v>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1569,25 @@
         <v>0.0355890903285039</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001098646547601145</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.928</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2129560576537158</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.007708743668768447</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002437718789171089</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1603,25 @@
         <v>0.02947589229072784</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00093210955704498</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.945</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1818603965807558</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00517297340239226</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001635837822703026</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1637,25 @@
         <v>0.03486670253438638</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001102581945082263</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.884</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.320224920954007</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01012640113762041</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1828748007768971</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.006206485696586647</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0001962663106647054</v>
       </c>
     </row>
     <row r="13">
@@ -1353,16 +1671,25 @@
         <v>0.03516133914639202</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001111899172842394</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.887</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1796338242259818</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.005975597393086069</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001889649814231648</v>
       </c>
     </row>
     <row r="14">
@@ -1378,16 +1705,25 @@
         <v>0.03577362064246183</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001131261213809954</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.92</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2118295083759073</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.0140832568895776</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004453516864432366</v>
       </c>
     </row>
     <row r="15">
@@ -1403,16 +1739,25 @@
         <v>0.03599587756895486</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00113828959494462</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.928</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2076940109661276</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.0138227027909547</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004371122423898315</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1773,25 @@
         <v>0.03695098728365667</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001168492816082733</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.923</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2255975540959344</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.008254916655173479</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002610433852520697</v>
       </c>
     </row>
     <row r="17">
@@ -1453,16 +1807,25 @@
         <v>0.03660762071068339</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001157634611653114</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2215624409167406</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.007904164403530169</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002499516251558158</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,22 +1865,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1912,25 @@
         <v>0.1364002383595145</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004313354266059348</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.689792997947957</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.1124602251152067</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00355630457539325</v>
       </c>
     </row>
     <row r="3">
@@ -1559,16 +1946,25 @@
         <v>0.1366420352137251</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004321000553963038</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.786545688709956</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.1171447960135475</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.003704443714386232</v>
       </c>
     </row>
     <row r="4">
@@ -1584,16 +1980,25 @@
         <v>0.128609456613889</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004066988115364954</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.579219784224073</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1083566244242487</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.003426537327480572</v>
       </c>
     </row>
     <row r="5">
@@ -1609,16 +2014,25 @@
         <v>0.1280381484767079</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004048921765772154</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.678280655203935</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.1136094576745768</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.003592646499881594</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +2048,25 @@
         <v>0.07390915712539468</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002337212764595102</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.535665046439691</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.06698774952989786</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.002118338638433509</v>
       </c>
     </row>
     <row r="7">
@@ -1659,16 +2082,25 @@
         <v>0.2923802633067704</v>
       </c>
       <c r="D7" t="n">
+        <v>0.009245875749291487</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.631</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.482533936630368</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01525906288079317</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7740963328052142</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1330129529109955</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.004206238895034696</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2116,25 @@
         <v>0.1528988398238661</v>
       </c>
       <c r="D8" t="n">
+        <v>0.004835085854406751</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.588</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4921950832749145</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01556457516284977</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4690540185629317</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.04684549916342979</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001481384754839505</v>
       </c>
     </row>
     <row r="9">
@@ -1709,16 +2150,25 @@
         <v>0.2588329473971165</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008185016472694389</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.627</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.483602109176542</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01529284146259288</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7311266662416583</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1152790161479372</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.003645442574508117</v>
       </c>
     </row>
     <row r="10">
@@ -1734,16 +2184,25 @@
         <v>0.1405238202751377</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008185016472694389</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.589</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4920152436662913</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01555888813508215</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4618084623573226</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0438574008135408</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001386892788257106</v>
       </c>
     </row>
     <row r="11">
@@ -1759,16 +2218,25 @@
         <v>0.1038805284241611</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00328499074362211</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.61</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4877499359302879</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01542400726140908</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.3592770168309545</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.02864012724773843</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0009056803457990293</v>
       </c>
     </row>
     <row r="12">
@@ -1784,16 +2252,25 @@
         <v>0.3020540910196095</v>
       </c>
       <c r="D12" t="n">
+        <v>0.009551789041937774</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4645158770160607</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01468928180681411</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.068298007279758</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1059557687917563</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00335061560616137</v>
       </c>
     </row>
     <row r="13">
@@ -1809,16 +2286,25 @@
         <v>0.2773372869199885</v>
       </c>
       <c r="D13" t="n">
+        <v>0.00877017506758788</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.652</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4763360158543546</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01506306741669836</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.001892605039772</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1035965843209182</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.003276011642677895</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +2320,25 @@
         <v>0.2364864198137821</v>
       </c>
       <c r="D14" t="n">
+        <v>0.007478357223103239</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.879</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.3261272757682191</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01031304998533412</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.23776324459849</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1445287179923783</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.004570399361600736</v>
       </c>
     </row>
     <row r="15">
@@ -1859,16 +2354,25 @@
         <v>0.2164134105806157</v>
       </c>
       <c r="D15" t="n">
+        <v>0.006843592936399282</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.869</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3374003556607491</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01066953607238853</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.158327519020037</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1365289784378658</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.004317425384796734</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2388,25 @@
         <v>0.2126194438119936</v>
       </c>
       <c r="D16" t="n">
+        <v>0.006723617172840933</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.945</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.317833301529248</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1316771496299235</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.004163997086293562</v>
       </c>
     </row>
     <row r="17">
@@ -1909,16 +2422,25 @@
         <v>0.1890730920353395</v>
       </c>
       <c r="D17" t="n">
+        <v>0.005979016150823141</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.235610788598583</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1274201238800537</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.004029378112017813</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,22 +2480,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1990,16 +2527,25 @@
         <v>0.04991606669332099</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001578484625877639</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.323021754932768</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.05019593241914981</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001587334757203992</v>
       </c>
     </row>
     <row r="3">
@@ -2015,16 +2561,25 @@
         <v>0.04965363348616369</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00157018575919484</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.353464965169896</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.05093242434220116</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001610624676755589</v>
       </c>
     </row>
     <row r="4">
@@ -2040,16 +2595,25 @@
         <v>0.04918220537927641</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001555277893486989</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.292919230626634</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04782945511705659</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001512500174146942</v>
       </c>
     </row>
     <row r="5">
@@ -2065,16 +2629,25 @@
         <v>0.04886308963016212</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001545186567442669</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.326243192360724</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0496743519378361</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00157084093416361</v>
       </c>
     </row>
     <row r="6">
@@ -2090,16 +2663,25 @@
         <v>0.04161785088779944</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001316072001267069</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.020547179364685</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0327446427860312</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001035476523724601</v>
       </c>
     </row>
     <row r="7">
@@ -2115,16 +2697,25 @@
         <v>0.05012989349485741</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001585246423054077</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.87</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3363034344160047</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01063484837691634</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2568790483780162</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01297274343860258</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0004102341676698887</v>
       </c>
     </row>
     <row r="8">
@@ -2140,16 +2731,25 @@
         <v>0.04821936622314699</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001524830245949354</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.868</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3384907679686405</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.0107040179372047</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2378110033872876</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01126914126881482</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003563615368365464</v>
       </c>
     </row>
     <row r="9">
@@ -2165,16 +2765,25 @@
         <v>0.04894101377355412</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001547650745221032</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.88</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3249615361854384</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.0102761860629321</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2514350259911232</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01222160558335487</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003864811030763225</v>
       </c>
     </row>
     <row r="10">
@@ -2190,16 +2799,25 @@
         <v>0.04510826769182014</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001547650745221032</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.868</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3384907679686405</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.0107040179372047</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2341878747443497</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01100763989258458</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003480921372349848</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2833,25 @@
         <v>0.03957347665931723</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001251423211749537</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.884</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.320224920954007</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01012640113762041</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2025598277589382</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.0076015947162796</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002403835315294497</v>
       </c>
     </row>
     <row r="12">
@@ -2240,16 +2867,25 @@
         <v>0.05862173677785572</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001853782086128842</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01264911064067352</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2427069447963393</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01080488997102725</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003416806217595685</v>
       </c>
     </row>
     <row r="13">
@@ -2265,16 +2901,25 @@
         <v>0.05281336723128599</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001670105313537644</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.8129999999999999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3899115284266419</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01233008515785678</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.236642129130002</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01032686611745574</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003265641802278007</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2935,25 @@
         <v>0.04994335959922978</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001579347703344003</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.912</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2811350283971076</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.02038083934764248</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.000644498729645305</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2969,25 @@
         <v>0.04567579061831758</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001444395322828341</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.916</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2736119011813575</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.0198639174247572</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0006281522231573909</v>
       </c>
     </row>
     <row r="16">
@@ -2340,16 +3003,25 @@
         <v>0.04813337667747444</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001522111017756471</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2994100611506924</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01401042955869015</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.000443048684028086</v>
       </c>
     </row>
     <row r="17">
@@ -2365,16 +3037,25 @@
         <v>0.04522726121344443</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001430211577658751</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.949</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2918755394641901</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01325650888276663</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004192076189179659</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,22 +3095,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2446,16 +3142,25 @@
         <v>0.04626901183779868</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001463154624927371</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2718285561526238</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01513809593881304</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004787086260479414</v>
       </c>
     </row>
     <row r="3">
@@ -2471,16 +3176,25 @@
         <v>0.0462724406800857</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001463263054441016</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.96</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3011319454568887</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01568900587873277</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00049612992800567</v>
       </c>
     </row>
     <row r="4">
@@ -2496,16 +3210,25 @@
         <v>0.04534300727493928</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001433871789503928</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2695725163672547</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01476952177176307</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004670532875021687</v>
       </c>
     </row>
     <row r="5">
@@ -2521,16 +3244,25 @@
         <v>0.04547486413543128</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001438041469546666</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.952</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2982422376313447</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01546056920878332</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004889061262242263</v>
       </c>
     </row>
     <row r="6">
@@ -2546,16 +3278,25 @@
         <v>0.0380844273651045</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001204335338569752</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.954</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2508365995473391</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01207928392942109</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003819804972083923</v>
       </c>
     </row>
     <row r="7">
@@ -2571,16 +3312,25 @@
         <v>0.04453601801431887</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001408352548395371</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.944</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2843761951462626</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01008170783925544</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003188115947642191</v>
       </c>
     </row>
     <row r="8">
@@ -2596,16 +3346,25 @@
         <v>0.04524620064456315</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001430810495057982</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2828888523151888</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01014756183144113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003208940808474361</v>
       </c>
     </row>
     <row r="9">
@@ -2621,16 +3380,25 @@
         <v>0.0452792404584207</v>
       </c>
       <c r="D9" t="n">
+        <v>0.00143185530571056</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2411555514600483</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007626008130076967</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2795840438876338</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.009806621162341935</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003101125902340836</v>
       </c>
     </row>
     <row r="10">
@@ -2646,16 +3414,25 @@
         <v>0.04601719978793961</v>
       </c>
       <c r="D10" t="n">
+        <v>0.00143185530571056</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2782657034685025</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01001234281593629</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003166180801278269</v>
       </c>
     </row>
     <row r="11">
@@ -2671,16 +3448,25 @@
         <v>0.03824512608672027</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001209417078343584</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2376444978577845</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00663092453536697</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002096882452445336</v>
       </c>
     </row>
     <row r="12">
@@ -2696,16 +3482,25 @@
         <v>0.04545319849993358</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001437356341995388</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.897</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2437715486418097</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.008723426617275657</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002758589711192903</v>
       </c>
     </row>
     <row r="13">
@@ -2721,16 +3516,25 @@
         <v>0.04562862173530811</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001442903711778382</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.882</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3226081214104815</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01020176455325254</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2393059613452454</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.008420115987312316</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002662674468270436</v>
       </c>
     </row>
     <row r="14">
@@ -2746,16 +3550,25 @@
         <v>0.04614600259880132</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001459264731242614</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.927</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008226238508577295</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2670904023962857</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.009056019330967037</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0002863764762037005</v>
       </c>
     </row>
     <row r="15">
@@ -2771,16 +3584,25 @@
         <v>0.04626812059276795</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001463126441284866</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.911</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2847437444440176</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009004387819280108</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2623064163402389</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.008672759533520187</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002742567372486322</v>
       </c>
     </row>
     <row r="16">
@@ -2796,16 +3618,25 @@
         <v>0.04949866777582758</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00156528531315596</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007739767438366609</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3108694704927832</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.0119667001313185</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003784202849120252</v>
       </c>
     </row>
     <row r="17">
@@ -2821,16 +3652,25 @@
         <v>0.04924277426751313</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001557193249908711</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.305302326091787</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01152026356002717</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003643027209512576</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,22 +3710,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2902,16 +3757,25 @@
         <v>0.180843052941358</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005718759463131039</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.893</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.001657202983573</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04097265953745605</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001295669259329822</v>
       </c>
     </row>
     <row r="3">
@@ -2927,16 +3791,25 @@
         <v>0.1810788557867443</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005726216203832732</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.913</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.008912407082264592</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.082727256075714</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04311087274214997</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001363285497828628</v>
       </c>
     </row>
     <row r="4">
@@ -2952,16 +3825,25 @@
         <v>0.1730385897802788</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005471960668092162</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.902</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2973146481423342</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.009401914698613257</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9809625437071839</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.03910998212830637</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001236766227739278</v>
       </c>
     </row>
     <row r="5">
@@ -2977,16 +3859,25 @@
         <v>0.1736645065871629</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005491753895447497</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.928</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.056457562426863</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04132865534368013</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001306926835181182</v>
       </c>
     </row>
     <row r="6">
@@ -3002,16 +3893,25 @@
         <v>0.09903468601432071</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003131751751648762</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.989</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.7958662541247526</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02241807981229551</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007089219297429384</v>
       </c>
     </row>
     <row r="7">
@@ -3027,16 +3927,25 @@
         <v>0.3430745131131613</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01084896868590894</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.769</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4214724190264411</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01332812815064441</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9909802107643334</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2169454126483329</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006860416318938337</v>
       </c>
     </row>
     <row r="8">
@@ -3052,16 +3961,25 @@
         <v>0.1690502572683381</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005345838520053828</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.727</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4455008417500466</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01408797359452381</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6119671249243839</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.06274250345232996</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001984092170103404</v>
       </c>
     </row>
     <row r="9">
@@ -3077,16 +3995,25 @@
         <v>0.3010589612383928</v>
       </c>
       <c r="D9" t="n">
+        <v>0.009520320275176677</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.777</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4162583332499183</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01316324428095141</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9403546803351057</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1822479356086617</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.005763185753870761</v>
       </c>
     </row>
     <row r="10">
@@ -3102,16 +4029,25 @@
         <v>0.1555660993613394</v>
       </c>
       <c r="D10" t="n">
+        <v>0.009520320275176677</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.757</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4288950920679788</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.0135628536820243</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.602595105983744</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.05797014855146685</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00183317705720946</v>
       </c>
     </row>
     <row r="11">
@@ -3127,16 +4063,25 @@
         <v>0.1133746487435342</v>
       </c>
       <c r="D11" t="n">
+        <v>0.003585221189511153</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.789</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4080183819388534</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01290267414143285</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4693884291904667</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.03748214519702869</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001185289504117513</v>
       </c>
     </row>
     <row r="12">
@@ -3152,16 +4097,25 @@
         <v>0.2945531238847126</v>
       </c>
       <c r="D12" t="n">
+        <v>0.009314587633934357</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.848</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3590208907570701</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01135323742374835</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.424123635480715</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1430263370892062</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00452288990592909</v>
       </c>
     </row>
     <row r="13">
@@ -3177,16 +4131,25 @@
         <v>0.2638066662187561</v>
       </c>
       <c r="D13" t="n">
+        <v>0.008342299271870688</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.861</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3459465276599839</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01093978976031989</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.334598785666659</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1375761524917442</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.004350539935965608</v>
       </c>
     </row>
     <row r="14">
@@ -3202,16 +4165,25 @@
         <v>0.2612889107559123</v>
       </c>
       <c r="D14" t="n">
+        <v>0.008262680853331509</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.925</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.560315324417728</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1554867377309487</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.004916922371790388</v>
       </c>
     </row>
     <row r="15">
@@ -3227,16 +4199,25 @@
         <v>0.2358469719081172</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007458136104833982</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007739767438366609</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.462939170976353</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1506122385786857</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.004762777174053281</v>
       </c>
     </row>
     <row r="16">
@@ -3252,16 +4233,25 @@
         <v>0.2465095695206426</v>
       </c>
       <c r="D16" t="n">
+        <v>0.007795317047128522</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.979</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.815965691047956</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.183098826587354</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.005790093289202337</v>
       </c>
     </row>
     <row r="17">
@@ -3277,16 +4267,25 @@
         <v>0.2261295266755158</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007150843505104331</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.981</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.702670294777646</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1774525982573438</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.005611543872080326</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,22 +4325,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3358,16 +4372,25 @@
         <v>0.05878071342313348</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001858809369067346</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.957</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3855862997675656</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.0155822881815711</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004927552181088806</v>
       </c>
     </row>
     <row r="3">
@@ -3383,16 +4406,25 @@
         <v>0.05895711879378299</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001864387796694733</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.973</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.005125524363418829</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4156464558103422</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01644150367525176</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0005199259977182496</v>
       </c>
     </row>
     <row r="4">
@@ -3408,16 +4440,25 @@
         <v>0.05793961935392924</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001832211639215899</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.953</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3819328712404848</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0149443949262014</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004725832621986036</v>
       </c>
     </row>
     <row r="5">
@@ -3433,16 +4474,25 @@
         <v>0.05860887175685224</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001853375258443673</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.969</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4107671743507944</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01586539105592803</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005017077170599642</v>
       </c>
     </row>
     <row r="6">
@@ -3458,16 +4508,25 @@
         <v>0.04700054103920148</v>
       </c>
       <c r="D6" t="n">
+        <v>0.00148628760944094</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.969</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3425974912209397</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01111569342612648</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003515090899872029</v>
       </c>
     </row>
     <row r="7">
@@ -3483,16 +4542,25 @@
         <v>0.06054234691770706</v>
       </c>
       <c r="D7" t="n">
+        <v>0.00191451711152029</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.892</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3103804117530615</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.009815090422405696</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3356496525796025</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01681388808839089</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0005317018268248974</v>
       </c>
     </row>
     <row r="8">
@@ -3508,16 +4576,25 @@
         <v>0.05978191054356783</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001890470001941091</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.887</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3107440788811933</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0146667243717648</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0004638025482867894</v>
       </c>
     </row>
     <row r="9">
@@ -3533,16 +4610,25 @@
         <v>0.05903186935883603</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001866751617114254</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.905</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2932149382279149</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.009272270487857868</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3284161296031582</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01605991672923919</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0005078591589703751</v>
       </c>
     </row>
     <row r="10">
@@ -3558,16 +4644,25 @@
         <v>0.057101862791177</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001866751617114254</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.893</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.305893109783794</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01443737668737478</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0004565499376992102</v>
       </c>
     </row>
     <row r="11">
@@ -3583,16 +4678,25 @@
         <v>0.04888644887039165</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001545925251478032</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.895</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3065534211193866</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009694070352540258</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2646143351955469</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.009842122060322875</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003112352272000941</v>
       </c>
     </row>
     <row r="12">
@@ -3608,16 +4712,25 @@
         <v>0.06583850982069339</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002081996487847552</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.869</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3374003556607491</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01066953607238853</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3235297283645214</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01492816046663892</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004720698835106101</v>
       </c>
     </row>
     <row r="13">
@@ -3633,16 +4746,25 @@
         <v>0.06100748106623148</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001929225944788892</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.872</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3340898082851376</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01056484737230027</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3152425326952929</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01402507439076175</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004435117942810553</v>
       </c>
     </row>
     <row r="14">
@@ -3658,16 +4780,25 @@
         <v>0.06121320252549022</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001935731428537203</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.92</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3544761638021253</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01579724645697362</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004995527956306175</v>
       </c>
     </row>
     <row r="15">
@@ -3683,16 +4814,25 @@
         <v>0.05878240641778332</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001858862906258946</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.913</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008912407082264592</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3455464399950052</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.0149195092001122</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004717963064419141</v>
       </c>
     </row>
     <row r="16">
@@ -3708,16 +4848,25 @@
         <v>0.0630675808015559</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001994372018496244</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.949</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.412571646524062</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01971764265734054</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0006235266088649108</v>
       </c>
     </row>
     <row r="17">
@@ -3733,16 +4882,25 @@
         <v>0.06033525092891014</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00190796816133146</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.954</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4021811252324405</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01872511920631739</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0005921402615012732</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,22 +4940,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3814,16 +4987,25 @@
         <v>0.2186998195203665</v>
       </c>
       <c r="D2" t="n">
+        <v>0.006915895535521114</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.721</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.4485075250204839</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01418305326789687</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.8448821500782191</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04284136135328852</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001354762799387052</v>
       </c>
     </row>
     <row r="3">
@@ -3839,16 +5021,25 @@
         <v>0.2179343375169289</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0068916888691338</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.733</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.4423923597893617</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01398967476391071</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8601036518833994</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04310052319373604</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001362958216371206</v>
       </c>
     </row>
     <row r="4">
@@ -3864,16 +5055,25 @@
         <v>0.2111626674816639</v>
       </c>
       <c r="D4" t="n">
+        <v>0.006677549860388298</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.75</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.4330127018922193</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01369306393762915</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.8271008065173748</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04102351926241877</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001297277585050341</v>
       </c>
     </row>
     <row r="5">
@@ -3889,16 +5089,25 @@
         <v>0.2105450623797611</v>
       </c>
       <c r="D5" t="n">
+        <v>0.006658019472222763</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.743</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.4369794045490016</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01381850208958989</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8417087900160902</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04129953843699898</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001306006077745872</v>
       </c>
     </row>
     <row r="6">
@@ -3914,16 +5123,25 @@
         <v>0.1228223502853672</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003883983744767922</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.902</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2973146481423342</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.009401914698613255</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.673289290000304</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02310497419193833</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007306434372593353</v>
       </c>
     </row>
     <row r="7">
@@ -3939,16 +5157,25 @@
         <v>0.5496007124580878</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01737990055018836</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.931</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.037000567258532</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.896421420003535</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02834733430573595</v>
       </c>
     </row>
     <row r="8">
@@ -3964,16 +5191,25 @@
         <v>2.815402597638748</v>
       </c>
       <c r="D8" t="n">
+        <v>0.08903084738893036</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.733</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4423923597893617</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01398967476391071</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6645974942013555</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1.524094445208851</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.04819609816070669</v>
       </c>
     </row>
     <row r="9">
@@ -3989,16 +5225,25 @@
         <v>0.723512652556964</v>
       </c>
       <c r="D9" t="n">
+        <v>0.02287947898030054</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9837392360479654</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.9745391139170521</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03081763268900181</v>
       </c>
     </row>
     <row r="10">
@@ -4014,16 +5259,25 @@
         <v>0.2369537500525965</v>
       </c>
       <c r="D10" t="n">
+        <v>0.007493135502844478</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.787</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4094276492861713</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01294723908792914</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.615288339896755</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.4361214715528516</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01379137186611342</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +5293,25 @@
         <v>1.067409442495233</v>
       </c>
       <c r="D11" t="n">
+        <v>0.03375445034255459</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.8870259133532626</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.699673879850481</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0537484073982289</v>
       </c>
     </row>
     <row r="12">
@@ -4064,16 +5327,25 @@
         <v>0.4265317864486324</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0134881193963822</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.77</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4208325082500163</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01330789239511652</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.223101791376129</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.336113583465964</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01062884476273558</v>
       </c>
     </row>
     <row r="13">
@@ -4089,16 +5361,25 @@
         <v>0.2068832079538877</v>
       </c>
       <c r="D13" t="n">
+        <v>0.006542221467765483</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.754</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4306785344082056</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01361925108073127</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.7728843115370184</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.08398225094663322</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.00265575196019193</v>
       </c>
     </row>
     <row r="14">
@@ -4114,16 +5395,25 @@
         <v>0.3791423546125891</v>
       </c>
       <c r="D14" t="n">
+        <v>0.01198953398015028</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.785</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4108223460329294</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01299134327157896</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.166856277700676</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.277938433776205</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.008789185000326816</v>
       </c>
     </row>
     <row r="15">
@@ -4139,16 +5429,25 @@
         <v>0.1917957334476036</v>
       </c>
       <c r="D15" t="n">
+        <v>0.01198953398015028</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.78</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.4142463035441596</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01309961831505025</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.7613947910173073</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.0764490886633569</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.002417532452203652</v>
       </c>
     </row>
     <row r="16">
@@ -4164,16 +5463,25 @@
         <v>0.140533389507072</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00444405598145955</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.8070000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3946530121511808</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01248002403843839</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5934352092765894</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04798602402060735</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001517451317606699</v>
       </c>
     </row>
     <row r="17">
@@ -4189,16 +5497,25 @@
         <v>0.3617576235768774</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01143978051432761</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.842</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3647410040014695</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01153412328701232</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.757555275302418</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1749348942324189</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.005531927080150966</v>
       </c>
     </row>
     <row r="18">
@@ -4214,16 +5531,25 @@
         <v>0.3377885791283262</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01068181277637525</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.844</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3628553430776512</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.0114744934528719</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.648118225867304</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.1694854270185282</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0053595997958479</v>
       </c>
     </row>
     <row r="19">
@@ -4239,16 +5565,25 @@
         <v>0.3231672802549479</v>
       </c>
       <c r="D19" t="n">
+        <v>0.01021944670847596</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.936643295845661</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.2053876812891972</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.006494928762146114</v>
       </c>
     </row>
     <row r="20">
@@ -4264,16 +5599,25 @@
         <v>0.3041552027050027</v>
       </c>
       <c r="D20" t="n">
+        <v>0.009618232027380151</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.921</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.816378310372518</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.1978808101949721</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.006257540654555797</v>
       </c>
     </row>
     <row r="21">
@@ -4289,16 +5633,25 @@
         <v>0.3119463430495996</v>
       </c>
       <c r="D21" t="n">
+        <v>0.009864609517969705</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.983</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.454828730967608</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.2534456379593801</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.008014654789860708</v>
       </c>
     </row>
     <row r="22">
@@ -4314,16 +5667,25 @@
         <v>0.2954925710013271</v>
       </c>
       <c r="D22" t="n">
+        <v>0.009344295560232155</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.983</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.301653921677849</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.245181276004432</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.007753312718003927</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,22 +5725,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4395,16 +5772,25 @@
         <v>0.07422343065523235</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002347150966220981</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.831</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3747519179403889</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01185069618208146</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3443319121353535</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01585892374903689</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005015032028589311</v>
       </c>
     </row>
     <row r="3">
@@ -4420,16 +5806,25 @@
         <v>0.07445874752832647</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002354592339129443</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.83</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.375632799419859</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.0118785521003193</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3448888962182002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01589536393387344</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0005026555426833416</v>
       </c>
     </row>
     <row r="4">
@@ -4445,16 +5840,25 @@
         <v>0.07390695647832163</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002337143174024332</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.837</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3693656724710622</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01168036814488311</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3413015918807227</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01570101274881134</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004965096185758502</v>
       </c>
     </row>
     <row r="5">
@@ -4470,16 +5874,25 @@
         <v>0.07463590328744657</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0023601944961238</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.833</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3729758705332022</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01179453263168999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3425827180714611</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01587246993035247</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005019315707244798</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +5908,25 @@
         <v>0.05946619624145877</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001880486239095539</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.886</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.317811264746862</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0100500746265886</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3005494727497591</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0114869090258605</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003632479579686519</v>
       </c>
     </row>
     <row r="7">
@@ -4520,16 +5942,25 @@
         <v>0.4703511096790937</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01487380806573605</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.955</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.045374035047025</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>13.71143981122111</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4335937980376785</v>
       </c>
     </row>
     <row r="8">
@@ -4545,16 +5976,25 @@
         <v>0.0912689425364053</v>
       </c>
       <c r="D8" t="n">
+        <v>0.00288617738050066</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.928</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5624763363872348</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.2567520246268793</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.00811921191680582</v>
       </c>
     </row>
     <row r="9">
@@ -4570,16 +6010,25 @@
         <v>0.09934786524180853</v>
       </c>
       <c r="D9" t="n">
+        <v>0.003141655348395897</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2482820976228451</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007851369307324678</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.6146648846413875</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.268941113830539</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.008504664761671147</v>
       </c>
     </row>
     <row r="10">
@@ -4595,16 +6044,25 @@
         <v>5.211929618515057</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1648156859900007</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.907</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2904324362050492</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009184280047995052</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.8691563911058018</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>8.578437601515478</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2712740158642081</v>
       </c>
     </row>
     <row r="11">
@@ -4620,16 +6078,25 @@
         <v>0.5210672670012193</v>
       </c>
       <c r="D11" t="n">
+        <v>0.01647759377882948</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.944</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.857481272450187</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>2.766656827540939</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.08748937079085033</v>
       </c>
     </row>
     <row r="12">
@@ -4645,16 +6112,25 @@
         <v>0.07564191511620663</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002392007383443331</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.892</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3103804117530615</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009815090422405696</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4246004965638724</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.02104010545371025</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.000665346554438548</v>
       </c>
     </row>
     <row r="13">
@@ -4670,16 +6146,25 @@
         <v>0.07508482202938623</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002374390553212467</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.888</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3931617757554065</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01838105786445346</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0005812600865502349</v>
       </c>
     </row>
     <row r="14">
@@ -4695,16 +6180,25 @@
         <v>0.07274575109322065</v>
       </c>
       <c r="D14" t="n">
+        <v>0.002300422635542611</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.901</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.415395485856105</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.02036480358505331</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.00064399163430731</v>
       </c>
     </row>
     <row r="15">
@@ -4720,16 +6214,25 @@
         <v>0.07098755126384723</v>
       </c>
       <c r="D15" t="n">
+        <v>0.002300422635542611</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.896</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3052605444534227</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009653186002558949</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3869878989387687</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01823839138371528</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.000576748576301303</v>
       </c>
     </row>
     <row r="16">
@@ -4745,16 +6248,25 @@
         <v>0.06045186015706244</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001911655668903015</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.909</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2876091097305508</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.009094998625618368</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3345112529021332</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01233372541717584</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003900266435338607</v>
       </c>
     </row>
     <row r="17">
@@ -4770,16 +6282,25 @@
         <v>0.08333528137901612</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002635292986087086</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.863</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3438473498516456</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.0108734079294396</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3992696890011182</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01732484475050234</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0005478596952039897</v>
       </c>
     </row>
     <row r="18">
@@ -4795,16 +6316,25 @@
         <v>0.07831179269425635</v>
       </c>
       <c r="D18" t="n">
+        <v>0.002476436325647842</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.861</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3459465276599839</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01093978976031989</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.389267326303032</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01630038399194004</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0005154634014987825</v>
       </c>
     </row>
     <row r="19">
@@ -4820,16 +6350,25 @@
         <v>0.07862862162467699</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002486455336135484</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.913</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.00891240708226459</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.439910347892028</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.02394344110309973</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0007571580890788962</v>
       </c>
     </row>
     <row r="20">
@@ -4845,16 +6384,25 @@
         <v>0.07499643965308113</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002371595657071044</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.907</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2904324362050492</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.009184280047995052</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4289934547877025</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.02332315140363156</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0007375428064842887</v>
       </c>
     </row>
     <row r="21">
@@ -4870,16 +6418,25 @@
         <v>0.08271746062028101</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002615755778253723</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.948</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5576775384314627</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.0286861126675309</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0009071345324560613</v>
       </c>
     </row>
     <row r="22">
@@ -4895,16 +6452,25 @@
         <v>0.08125842808528728</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002569617118345028</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.961</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5436348985143241</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.02735911892140626</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0008651713056705302</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,22 +6510,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4976,16 +6557,25 @@
         <v>0.04392056027492849</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001388890065794851</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.984</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.00396787096564392</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3559290649745593</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02197875886355954</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006950293815246208</v>
       </c>
     </row>
     <row r="3">
@@ -5001,16 +6591,25 @@
         <v>0.04393079479009408</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00138921370958156</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3905124679548471</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02253784608393256</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0007127092717953332</v>
       </c>
     </row>
     <row r="4">
@@ -5026,16 +6625,25 @@
         <v>0.04502862170633569</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001423930044901183</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.982</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3521715084016183</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.02147050838951193</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0006789570903261134</v>
       </c>
     </row>
     <row r="5">
@@ -5051,16 +6659,25 @@
         <v>0.0453948203390326</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0014355102624548</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.99</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3857144609821508</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02222095278627073</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0007026882258368025</v>
       </c>
     </row>
     <row r="6">
@@ -5076,16 +6693,25 @@
         <v>0.0375396071309765</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001187106610017846</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.99</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3185743280613874</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0172323541105478</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0005449348843589606</v>
       </c>
     </row>
     <row r="7">
@@ -5101,16 +6727,25 @@
         <v>0.0383184012773507</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001211734243327336</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2413311514741885</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01404963788816617</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0004442885602720311</v>
       </c>
     </row>
     <row r="8">
@@ -5126,16 +6761,25 @@
         <v>0.03842278665585031</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001215035198832112</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2412749280797274</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01595027033406957</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0005043918355107465</v>
       </c>
     </row>
     <row r="9">
@@ -5151,16 +6795,25 @@
         <v>0.03878002361883544</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001226332023506454</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2367852954535595</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01314097834102384</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000415554222405762</v>
       </c>
     </row>
     <row r="10">
@@ -5176,16 +6829,25 @@
         <v>0.03930709029701707</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001226332023506454</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.927</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.236638184400164</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01474102486968738</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0004661521363339891</v>
       </c>
     </row>
     <row r="11">
@@ -5201,16 +6863,25 @@
         <v>0.03259592531244604</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001030773664280651</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2318426190328258</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007331507348424335</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2016302177576132</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.01066539404085421</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003372693731228624</v>
       </c>
     </row>
     <row r="12">
@@ -5226,16 +6897,25 @@
         <v>0.04540297029235392</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001435767986607994</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.917</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2597546214768964</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.008957163256021947</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002832503726299926</v>
       </c>
     </row>
     <row r="13">
@@ -5251,16 +6931,25 @@
         <v>0.04503531251077749</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001424141626715332</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.913</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.00891240708226459</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2550827765845949</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.008696430656065318</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.000275005283868788</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +6965,25 @@
         <v>0.04821253692660183</v>
       </c>
       <c r="D14" t="n">
+        <v>0.00152461428463036</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.925</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2919938670070257</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.009953128994743073</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003147455746885018</v>
       </c>
     </row>
     <row r="15">
@@ -5301,16 +6999,25 @@
         <v>0.04828903879333337</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001527033486071624</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.925</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2867739949388718</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.009663931442935727</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003056003451139442</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +7033,25 @@
         <v>0.05623684363467478</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001778365143043144</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3540072219603632</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01411784879211578</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004464455784494287</v>
       </c>
     </row>
     <row r="17">
@@ -5351,16 +7067,25 @@
         <v>0.0566649074341122</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001791901708944021</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2482820976228452</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.00785136930732468</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3476830192926497</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01380279537963671</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.000436482714769005</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +7099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,22 +7125,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5432,16 +7172,25 @@
         <v>0.1825539327957121</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005772862234557602</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.985</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.395005058351959</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.05242345083556101</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001657775074462299</v>
       </c>
     </row>
     <row r="3">
@@ -5457,16 +7206,25 @@
         <v>0.1836874661208815</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005808707705669996</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.989</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.491640524433038</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.05475068763302372</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001731368763807681</v>
       </c>
     </row>
     <row r="4">
@@ -5482,16 +7240,25 @@
         <v>0.1806614208734306</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005713015752823269</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.977</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.364718880094057</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04956554017225576</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001567400004009028</v>
       </c>
     </row>
     <row r="5">
@@ -5507,16 +7274,25 @@
         <v>0.1800969590920619</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005695165904010859</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.984</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.455279952203052</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05190135391569498</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001641264920200949</v>
       </c>
     </row>
     <row r="6">
@@ -5532,16 +7308,25 @@
         <v>0.09891291436327272</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003127900993931254</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855823</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374613</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.073701123906044</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02773385063851218</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0008770213630461363</v>
       </c>
     </row>
     <row r="7">
@@ -5557,16 +7342,25 @@
         <v>0.3179674560435996</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01005501382907246</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.6929999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4612493902434994</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01458598642533305</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.05836243091254</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1808471689642387</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005718889623203083</v>
       </c>
     </row>
     <row r="8">
@@ -5582,16 +7376,25 @@
         <v>0.1892708018462693</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005985268284006134</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.706</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4555919226676434</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01440708159205049</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6620470521265662</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.08372454076356399</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.002647602448644752</v>
       </c>
     </row>
     <row r="9">
@@ -5607,16 +7410,25 @@
         <v>0.2826479224555974</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008938112108743403</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.6909999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4620811617021408</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01461228934835332</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.998675920911456</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1627379403937441</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.005146225533689501</v>
       </c>
     </row>
     <row r="10">
@@ -5632,16 +7444,25 @@
         <v>0.1811021170842345</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008938112108743403</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.6929999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4612493902434994</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01458598642533305</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6528897192363367</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.08413389338180424</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002660547315042678</v>
       </c>
     </row>
     <row r="11">
@@ -5657,16 +7478,25 @@
         <v>0.1344202101492228</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00425074027630026</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.762</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4258591316386206</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01346684818359515</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5186477227633037</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.05382761175062747</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001702178541392262</v>
       </c>
     </row>
     <row r="12">
@@ -5682,16 +7512,25 @@
         <v>0.3183536584765445</v>
       </c>
       <c r="D12" t="n">
+        <v>0.01006722662233251</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.859</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3480215510568275</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01100540776164155</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.517468204804486</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1513166906308331</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004785053903924936</v>
       </c>
     </row>
     <row r="13">
@@ -5707,16 +7546,25 @@
         <v>0.2760132736996516</v>
       </c>
       <c r="D13" t="n">
+        <v>0.008728306093303486</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.871</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3351999403341235</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01059995283008373</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.422594213228193</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1461888691719641</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0046228979514778</v>
       </c>
     </row>
     <row r="14">
@@ -5732,16 +7580,25 @@
         <v>0.2849400003519907</v>
       </c>
       <c r="D14" t="n">
+        <v>0.009010593976014706</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.705891849867841</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1707795632783371</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.005400523977683975</v>
       </c>
     </row>
     <row r="15">
@@ -5757,16 +7614,25 @@
         <v>0.2495388173131465</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007891110273342015</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.599394662455721</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1647161565569506</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005208782221488423</v>
       </c>
     </row>
     <row r="16">
@@ -5782,16 +7648,25 @@
         <v>0.2838990873106823</v>
       </c>
       <c r="D16" t="n">
+        <v>0.008977677415447628</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.973</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.00512552436341883</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.068236518251971</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.2119193417105185</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.006701478000487616</v>
       </c>
     </row>
     <row r="17">
@@ -5807,16 +7682,25 @@
         <v>0.2420350826394701</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007653821348078038</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.981</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.939092811621253</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.203767600836197</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.006443697319904135</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +7714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5856,22 +7740,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5888,16 +7787,25 @@
         <v>0.0640715592154836</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002026120603592793</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.99</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5288020994269328</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02039925934512076</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006450812211105641</v>
       </c>
     </row>
     <row r="3">
@@ -5913,16 +7821,25 @@
         <v>0.06424038735355052</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002031459418086961</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.994</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.564227875918853</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02127974519899769</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006729246285686571</v>
       </c>
     </row>
     <row r="4">
@@ -5938,16 +7855,25 @@
         <v>0.06295492824215032</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001990809631776553</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.99</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5227669138226781</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01942564729931314</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0006142929048892815</v>
       </c>
     </row>
     <row r="5">
@@ -5963,16 +7889,25 @@
         <v>0.06402227689339021</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002024562159730821</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.993</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5568840171772499</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02055450521602135</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006499905266043875</v>
       </c>
     </row>
     <row r="6">
@@ -5988,16 +7923,25 @@
         <v>0.05049680738086037</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001596849258903205</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.995</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4561315605260022</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01399142476430162</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004424476996607766</v>
       </c>
     </row>
     <row r="7">
@@ -6013,16 +7957,25 @@
         <v>0.07065468426783096</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002234297296464121</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.902</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2973146481423342</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.009401914698613255</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3816443924908996</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.0190718542411144</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0006031049860466363</v>
       </c>
     </row>
     <row r="8">
@@ -6038,16 +7991,25 @@
         <v>0.06664012282151838</v>
       </c>
       <c r="D8" t="n">
+        <v>0.002107345716693645</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.896</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3052605444534227</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009653186002558949</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3533352956136452</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0167905146033464</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0005309626923289325</v>
       </c>
     </row>
     <row r="9">
@@ -6063,16 +8025,25 @@
         <v>0.06406584188222603</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002025939805640431</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.922</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3738224758933495</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01797802032733789</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0005685149205519362</v>
       </c>
     </row>
     <row r="10">
@@ -6088,16 +8059,25 @@
         <v>0.06429200005857759</v>
       </c>
       <c r="D10" t="n">
+        <v>0.002025939805640431</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.894</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3479310903462566</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01652633820518994</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0005226087011065933</v>
       </c>
     </row>
     <row r="11">
@@ -6113,16 +8093,25 @@
         <v>0.05327270969112412</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001684630997528773</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.906</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2918287168871494</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009228434320078352</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.300786318401272</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.01125494068898687</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003559124750730329</v>
       </c>
     </row>
     <row r="12">
@@ -6138,16 +8127,25 @@
         <v>0.07484077794150459</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002366673201540424</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.853</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3541059163583687</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01119781228633522</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3447399523250758</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.0154876317678116</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004897619194826474</v>
       </c>
     </row>
     <row r="13">
@@ -6163,16 +8161,25 @@
         <v>0.06671180580285278</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002109612531598526</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.849</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3580488793447062</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01132249972400088</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3360247660102206</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01462222688969396</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004623954143519259</v>
       </c>
     </row>
     <row r="14">
@@ -6188,16 +8195,25 @@
         <v>0.07047861051269155</v>
       </c>
       <c r="D14" t="n">
+        <v>0.002228729355439928</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.91</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2861817604250837</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.009049861877399014</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.387528930784735</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01733090548297455</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0005480513523930011</v>
       </c>
     </row>
     <row r="15">
@@ -6213,16 +8229,25 @@
         <v>0.06448100171926376</v>
       </c>
       <c r="D15" t="n">
+        <v>0.002039068312421066</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.921</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3777769661157739</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01642484727480896</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0005193992760880585</v>
       </c>
     </row>
     <row r="16">
@@ -6238,16 +8263,25 @@
         <v>0.07453078482832431</v>
       </c>
       <c r="D16" t="n">
+        <v>0.002356870358574264</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4698346094375337</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02320244712691411</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0007337258021067847</v>
       </c>
     </row>
     <row r="17">
@@ -6263,16 +8297,25 @@
         <v>0.06743092162740531</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002132352970669086</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.954</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4580180414999528</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.02218575184111714</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0007015750742120423</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,22 +8355,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6344,16 +8402,25 @@
         <v>0.040650766947043</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001285490121853452</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.986</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3509983169270474</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01508463620227747</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004770180807422921</v>
       </c>
     </row>
     <row r="3">
@@ -6369,16 +8436,25 @@
         <v>0.04066418479307387</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001285914431400962</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.986</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.35104337621892</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01509960765799186</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004774915197417505</v>
       </c>
     </row>
     <row r="4">
@@ -6394,16 +8470,25 @@
         <v>0.04048275729718335</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001280177190229013</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.995</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3476787605021736</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0153603439814012</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004857367262488684</v>
       </c>
     </row>
     <row r="5">
@@ -6419,16 +8504,25 @@
         <v>0.04089736134437832</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001293288121391614</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.994</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3499094587985531</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0156154633982253</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004938043105738486</v>
       </c>
     </row>
     <row r="6">
@@ -6444,16 +8538,25 @@
         <v>0.03978020179738812</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001257960434608705</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.986</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3115423003888601</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01212263114272603</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00038335125645104</v>
       </c>
     </row>
     <row r="7">
@@ -6469,16 +8572,25 @@
         <v>16.13378750983071</v>
       </c>
       <c r="D7" t="n">
+        <v>0.510195158162413</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.955</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H7" t="n">
         <v>8.518038708874222</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>97.20197604662253</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.073796373764563</v>
       </c>
     </row>
     <row r="8">
@@ -6494,16 +8606,25 @@
         <v>9.443221259802979</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2986208762990206</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.964</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1862900963551203</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.005891010100144116</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.884130363185615</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>49.88851884094688</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.577613486296156</v>
       </c>
     </row>
     <row r="9">
@@ -6519,16 +8640,25 @@
         <v>8.539686243507822</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2700485903269201</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.956</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.980370706208972</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>34.56305829559959</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.09297987115272</v>
       </c>
     </row>
     <row r="10">
@@ -6544,16 +8674,25 @@
         <v>8.335391943412056</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2635882373139943</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.951</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006826346021115543</v>
+      </c>
+      <c r="H10" t="n">
         <v>10.50576799817641</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>261.476465466257</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.268611854037331</v>
       </c>
     </row>
     <row r="11">
@@ -6569,16 +8708,25 @@
         <v>8.887406576495183</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2810444727368425</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.054834883628958</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>14.88249458742123</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4706258016137899</v>
       </c>
     </row>
     <row r="12">
@@ -6594,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6605,6 +8753,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6619,10 +8776,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6630,6 +8787,15 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6644,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6655,6 +8821,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6669,16 +8844,25 @@
         <v>0.004876343429588163</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.03160696125855823</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0009994998749374613</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.0001575222242591648</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.00497879883952134</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0001574434434469059</v>
       </c>
     </row>
     <row r="16">
@@ -6694,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6705,6 +8889,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6719,16 +8912,25 @@
         <v>0.05704398586177167</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001803889221376414</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.955</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3797721024526234</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01410875806596436</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004461581044471953</v>
       </c>
     </row>
     <row r="18">
@@ -6744,16 +8946,25 @@
         <v>0.05507908167358452</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001741753495189659</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.959</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006270486424512856</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3730500394623365</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01374038982954966</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0004345092779998971</v>
       </c>
     </row>
     <row r="19">
@@ -6769,16 +8980,25 @@
         <v>0.06463832534338165</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002044043322240714</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.959</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006270486424512855</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4355881882556821</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01674019028658833</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0005293712977024597</v>
       </c>
     </row>
     <row r="20">
@@ -6794,16 +9014,25 @@
         <v>0.06330911815677499</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002002010100321299</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.958</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.427841129741739</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.0163613111490467</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0005173900873769421</v>
       </c>
     </row>
     <row r="21">
@@ -6819,16 +9048,25 @@
         <v>0.07218491390842016</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002282687406537748</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.96</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4884580546812479</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01786376755965971</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.000564901930803525</v>
       </c>
     </row>
     <row r="22">
@@ -6844,16 +9082,25 @@
         <v>0.07127183430549476</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002253813294234884</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.955</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4797372881645059</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01733822194949573</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0005482827193793139</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +9114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,22 +9140,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6925,16 +9187,25 @@
         <v>0.1337377279692323</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004229158294787792</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.975</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.15612494995996</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004937104414532875</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.077365062933094</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.0497845210261055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001574324786630364</v>
       </c>
     </row>
     <row r="3">
@@ -6950,16 +9221,25 @@
         <v>0.1333832391785227</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00421794837495138</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.976</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1530490117576719</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.004839834707921336</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.096224206090995</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04980668047860366</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001575025530046329</v>
       </c>
     </row>
     <row r="4">
@@ -6975,16 +9255,25 @@
         <v>0.1346851480121563</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004259118347153135</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.971</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1678064361101802</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.005306505441436954</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.053226481869161</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04707418614648799</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001488616472216468</v>
       </c>
     </row>
     <row r="5">
@@ -7000,16 +9289,25 @@
         <v>0.1337332137614633</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004229015543003979</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.973</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.00512552436341883</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.070825443158551</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04777537881495355</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001510790131326093</v>
       </c>
     </row>
     <row r="6">
@@ -7025,16 +9323,25 @@
         <v>0.08700177386702093</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002751237658947014</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.994</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8579820816237773</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02390475175224614</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007559346243799889</v>
       </c>
     </row>
     <row r="7">
@@ -7050,16 +9357,25 @@
         <v>2.367151120510952</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07485589106634331</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.988</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.815336577516299</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>128.7165862835823</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.070375852977079</v>
       </c>
     </row>
     <row r="8">
@@ -7075,16 +9391,25 @@
         <v>6.723628634562242</v>
       </c>
       <c r="D8" t="n">
+        <v>0.212619806263446</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.898</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3026483107502832</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009570579919733181</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.316263705068247</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>89.12698946008707</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.81844287687696</v>
       </c>
     </row>
     <row r="9">
@@ -7100,16 +9425,25 @@
         <v>4.773872181054812</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1509630935064893</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.986</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.029499311766307</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>24.04413440080157</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7603422907374082</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +9459,25 @@
         <v>0.5522744512130273</v>
       </c>
       <c r="D10" t="n">
+        <v>0.01746445159352708</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.878</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3272858078194043</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01034968598557463</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.8907837653693996</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>3.204548425997369</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1013367189845922</v>
       </c>
     </row>
     <row r="11">
@@ -7150,16 +9493,25 @@
         <v>1.366686506165346</v>
       </c>
       <c r="D11" t="n">
+        <v>0.04321842206900247</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.961</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.329682370413858</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>5.189517602574148</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.164106955816708</v>
       </c>
     </row>
     <row r="12">
@@ -7175,16 +9527,25 @@
         <v>0.2029938625617912</v>
       </c>
       <c r="D12" t="n">
+        <v>0.006419229567304429</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.25</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4330127018922193</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01369306393762915</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4155914614020509</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.6133114949185308</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01939461239105342</v>
       </c>
     </row>
     <row r="13">
@@ -7200,16 +9561,25 @@
         <v>0.1417388457394167</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004482175854598094</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.342</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.474379594839407</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01500119995200384</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3754533331613397</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.4170108718604704</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01318704164131704</v>
       </c>
     </row>
     <row r="14">
@@ -7225,16 +9595,25 @@
         <v>0.1875543541363954</v>
       </c>
       <c r="D14" t="n">
+        <v>0.00593098944152832</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.239</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4264727423880686</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01348625225924534</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.389704637885726</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.586170870695736</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01853635049442574</v>
       </c>
     </row>
     <row r="15">
@@ -7250,16 +9629,25 @@
         <v>0.1321102224687823</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00593098944152832</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.352</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.4775939698111775</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01510284741365018</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3796661909400523</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.4220422476483183</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01334614771385528</v>
       </c>
     </row>
     <row r="16">
@@ -7275,16 +9663,25 @@
         <v>0.1217722753720903</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003850777460370334</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.39</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.4877499359302879</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01542400726140908</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.336824720679886</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3340025057910981</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01056208662503449</v>
       </c>
     </row>
     <row r="17">
@@ -7300,16 +9697,25 @@
         <v>0.32645746647228</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01032349153220459</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.956</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.218788808533203</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.2259108665166825</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.007143928863749859</v>
       </c>
     </row>
     <row r="18">
@@ -7325,16 +9731,25 @@
         <v>0.3133513434070663</v>
       </c>
       <c r="D18" t="n">
+        <v>0.00990903953039916</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.95</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.080676677301343</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.2174820973509288</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.006877387779394069</v>
       </c>
     </row>
     <row r="19">
@@ -7350,16 +9765,25 @@
         <v>0.2969074624801092</v>
       </c>
       <c r="D19" t="n">
+        <v>0.009389038357381306</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.988</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.545122060358017</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.2618550461322809</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.008280583625864724</v>
       </c>
     </row>
     <row r="20">
@@ -7375,16 +9799,25 @@
         <v>0.2787612295970033</v>
       </c>
       <c r="D20" t="n">
+        <v>0.008815204088756721</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.985</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.386589332709952</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.2535987222843708</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.008019495741271107</v>
       </c>
     </row>
     <row r="21">
@@ -7400,16 +9833,25 @@
         <v>0.3143931588299226</v>
       </c>
       <c r="D21" t="n">
+        <v>0.009941984626776333</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.994</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.07722693830523129</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.85401100096563</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.292245736986347</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.00924162165351369</v>
       </c>
     </row>
     <row r="22">
@@ -7425,16 +9867,25 @@
         <v>0.2828507658280587</v>
       </c>
       <c r="D22" t="n">
+        <v>0.008944526579395876</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.994</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.6758008687085</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.2802156117774389</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.008861195691542104</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,22 +9925,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -7506,16 +9972,25 @@
         <v>0.05188497604643198</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001640747006500033</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.986</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4363675059830535</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01788625814275536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005656131454884004</v>
       </c>
     </row>
     <row r="3">
@@ -7531,16 +10006,25 @@
         <v>0.05186257510615456</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001640038626569973</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.985</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4370314549308152</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01789321440819123</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000565833121916261</v>
       </c>
     </row>
     <row r="4">
@@ -7556,16 +10040,25 @@
         <v>0.05203502955561722</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001645492115099297</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.984</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4319592642276808</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0177685677791574</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005618914494121711</v>
       </c>
     </row>
     <row r="5">
@@ -7581,16 +10074,25 @@
         <v>0.052840382966695</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001670959626103214</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.983</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4333990571731055</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01792336641522985</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005667866120989357</v>
       </c>
     </row>
     <row r="6">
@@ -7606,16 +10108,25 @@
         <v>0.04548129090263199</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001438244701770125</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.987</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3816316981604325</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01269032637895893</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004013033560842729</v>
       </c>
     </row>
     <row r="7">
@@ -7631,16 +10142,25 @@
         <v>2.192347473145315</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06932811437654027</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.98</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.14</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.004427188724235731</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.336598345975931</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>17.53346665234142</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5544568990000653</v>
       </c>
     </row>
     <row r="8">
@@ -7656,16 +10176,25 @@
         <v>5.085089854731223</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1608046604756541</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.961</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.225956347781861</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>12.7927977610701</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4045437857088405</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +10210,25 @@
         <v>0.1030752258002715</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0032595248386501</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.981</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7867833535175751</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.3410036226449095</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01078348137926485</v>
       </c>
     </row>
     <row r="10">
@@ -7706,16 +10244,25 @@
         <v>2.507122395134898</v>
       </c>
       <c r="D10" t="n">
+        <v>0.07928217141442929</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.957</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.108929190173681</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>11.04372874104315</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3492333668276021</v>
       </c>
     </row>
     <row r="11">
@@ -7731,16 +10278,25 @@
         <v>0.2472718542539493</v>
       </c>
       <c r="D11" t="n">
+        <v>0.007819422606956752</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.965</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.116706777949117</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>3.354679711973954</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1060842871019533</v>
       </c>
     </row>
     <row r="12">
@@ -7756,16 +10312,25 @@
         <v>0.04431603337464445</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001401396023279145</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.312</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4633098315382483</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01465114330009778</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1413537890622262</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.2004206689296121</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.006337858039921152</v>
       </c>
     </row>
     <row r="13">
@@ -7781,16 +10346,25 @@
         <v>0.04137741323434863</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001308468695065361</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.343</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4747114913292073</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01501169544055568</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1467269876790964</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1958934800649004</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006194695757818744</v>
       </c>
     </row>
     <row r="14">
@@ -7806,16 +10380,25 @@
         <v>0.04189100663842925</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001324709944546701</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.296</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4564909637659874</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01443551176785915</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.133588858967266</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1944098083925791</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.006147777939974679</v>
       </c>
     </row>
     <row r="15">
@@ -7831,16 +10414,25 @@
         <v>0.04039529638314918</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001324709944546701</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.34</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.4737087712930805</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0149799866488592</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1441255321930641</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1920315950298939</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.006072572230095347</v>
       </c>
     </row>
     <row r="16">
@@ -7856,16 +10448,25 @@
         <v>0.0381687045655424</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001207000417651816</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.37</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.4828043081829324</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01526761277999937</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.141313828216641</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1722049884542936</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.005445599879585664</v>
       </c>
     </row>
     <row r="17">
@@ -7881,16 +10482,25 @@
         <v>0.07721668669597065</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002441806033308889</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.954</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5040402987346273</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.0240107964532836</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0007592880522706888</v>
       </c>
     </row>
     <row r="18">
@@ -7906,16 +10516,25 @@
         <v>0.07556901675213136</v>
       </c>
       <c r="D18" t="n">
+        <v>0.00238970213476155</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.948</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4914297366646914</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.02254674209116031</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0007129905882445433</v>
       </c>
     </row>
     <row r="19">
@@ -7931,16 +10550,25 @@
         <v>0.07895321293355161</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002496719814582874</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.97</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.1705872210923198</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.005394441583704471</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5781563218362505</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.02885321774033485</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0009124188588423486</v>
       </c>
     </row>
     <row r="20">
@@ -7956,16 +10584,25 @@
         <v>0.07836599948926114</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002478150495016571</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.967</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.005648982209212558</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5636391488614582</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.02717861175670973</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0008594631679263284</v>
       </c>
     </row>
     <row r="21">
@@ -7981,16 +10618,25 @@
         <v>0.08497095283513971</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002687017459137833</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.978</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.6483206800787911</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.03124707253387648</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0009881191941953854</v>
       </c>
     </row>
     <row r="22">
@@ -8006,16 +10652,25 @@
         <v>0.08422225063772534</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002663341416807809</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.977</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1499033021650957</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.004740358636221525</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.6319944593181291</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.02918008782282096</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0009227553984385809</v>
       </c>
     </row>
   </sheetData>
